--- a/Model_Comparision.xlsx
+++ b/Model_Comparision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/03154669/Documents/GitHub/MSDS-6372-Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1032DC11-6EA6-2F4D-B4D7-85394491D02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0000DA-6BBF-D44E-9EC7-EF2DFA064C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{58BE8B7F-16FD-1747-9939-32B73DFD6717}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Root MSE</t>
   </si>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,13 +83,21 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -103,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -111,16 +119,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,140 +598,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB038BC9-A571-5445-9AD4-D819D3587FDC}">
-  <dimension ref="B2:H10"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J10" sqref="B2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>2275861</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <v>2259829</v>
       </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2259829</v>
+      </c>
+      <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>6782908</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>6782908</v>
       </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6782908</v>
+      </c>
+      <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>0.51280000000000003</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>0.51980000000000004</v>
       </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>0.51239999999999997</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <v>0.51929999999999998</v>
       </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>770600</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8">
         <v>770252</v>
       </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="8">
+        <v>770252</v>
+      </c>
+      <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>770600</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <v>770252</v>
       </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>770252</v>
+      </c>
+      <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>745309</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8">
         <v>745059</v>
       </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="8">
+        <v>745059</v>
+      </c>
+      <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="11">
         <v>1.313514E+17</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="12">
         <v>1.301966E+17</v>
       </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.301966E+17</v>
+      </c>
+      <c r="J10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
